--- a/xlsx/美洲国家组织_intext.xlsx
+++ b/xlsx/美洲国家组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t>美洲国家组织</t>
   </si>
@@ -26,78 +26,66 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B7%A3%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>地緣政治</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美洲国家组织</t>
+    <t>地缘政治</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美洲国家组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%B5%84%E7%B9%94%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>美洲國家組織秘書長</t>
+    <t>美洲国家组织秘书长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
   </si>
   <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
   </si>
   <si>
-    <t>法语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD</t>
   </si>
   <si>
-    <t>葡萄牙语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
@@ -119,15 +107,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AF%BA%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
@@ -149,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -185,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF%E8%BB%8D%E4%BA%8B%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2009年宏都拉斯軍事政變</t>
+    <t>2009年宏都拉斯军事政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E6%80%BB%E7%BB%9F</t>
@@ -197,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%8A%AA%E5%9F%83%E7%88%BE%C2%B7%E5%A1%9E%E6%8B%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>曼努埃爾·塞拉亞</t>
+    <t>曼努埃尔·塞拉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -209,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -245,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -287,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -299,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>加勒比海國家</t>
+    <t>加勒比海国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
@@ -317,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
@@ -329,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
@@ -353,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -371,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
@@ -389,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>門羅主義</t>
+    <t>门罗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%85%B1%E8%AF%86</t>
@@ -401,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>北大西洋公約組織</t>
+    <t>北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -419,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>非洲聯盟</t>
+    <t>非洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>東南亞國家聯盟</t>
+    <t>东南亚国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E5%BF%97</t>
@@ -449,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國廣播公司</t>
+    <t>英国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:OAS</t>
@@ -467,15 +449,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
   </si>
   <si>
@@ -485,9 +464,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
   </si>
   <si>
@@ -497,9 +473,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E4%B8%8E%E5%B0%BC%E7%BB%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>圣克里斯多福与尼维斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%8F%8A%E5%A4%9A%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
@@ -509,9 +482,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -527,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>超國家主義 (國際關係)</t>
+    <t>超国家主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
@@ -545,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>政府間主義</t>
+    <t>政府间主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -563,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>價值觀外交</t>
+    <t>价值观外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
@@ -593,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>全球主義</t>
+    <t>全球主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -641,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -677,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>突厥議會</t>
+    <t>突厥议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
@@ -725,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
@@ -755,9 +725,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>东南亚国家联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%85%B1%E5%90%8C%E4%BD%93</t>
   </si>
   <si>
@@ -797,15 +764,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
-    <t>北大西洋公约组织</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E5%AE%89%E5%85%A8%E6%9D%A1%E7%BA%A6%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -815,15 +779,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -833,9 +794,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -869,19 +827,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>中美洲統合體</t>
+    <t>中美洲统合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
@@ -935,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>歐洲聯盟基本條約</t>
+    <t>欧洲联盟基本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
@@ -947,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
@@ -971,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%92%E5%8A%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1007,19 +965,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐羅巴合眾國</t>
+    <t>欧罗巴合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>東亞共同體</t>
+    <t>东亚共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>中華聯邦</t>
+    <t>中华联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -1061,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_human_rights_organisations</t>
@@ -1109,25 +1067,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權委員會</t>
+    <t>联合国人权委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
+    <t>联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安理會</t>
+    <t>联合国安理会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_Commission_on_Human_and_Peoples%27_Rights</t>
@@ -1139,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E6%AC%8A%E8%88%87%E6%B0%91%E6%97%8F%E6%AC%8A%E5%88%A9%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>非洲人權與民族權利法院</t>
+    <t>非洲人权与民族权利法院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_Court_of_Justice</t>
@@ -1169,49 +1124,46 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>美洲國家組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Department_of_Economic_and_Social_Affairs</t>
@@ -1223,19 +1175,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A9%A6%E5%A5%B3%E5%9C%B0%E4%BD%8D%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國婦女地位委員會</t>
+    <t>联合国妇女地位委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Fund_for_Women</t>
@@ -1253,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NGO</t>
@@ -1271,19 +1223,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E8%81%AF%E7%9B%9F_(%E5%B7%B4%E9%BB%8E)</t>
   </si>
   <si>
-    <t>國際人權聯盟 (巴黎)</t>
+    <t>国际人权联盟 (巴黎)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A%E8%A7%80%E5%AF%9F</t>
   </si>
   <si>
-    <t>人權觀察</t>
+    <t>人权观察</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Emergency_(NGO)</t>
@@ -1921,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1947,10 +1899,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>15</v>
@@ -1976,10 +1928,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -2005,10 +1957,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2034,10 +1986,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
         <v>54</v>
@@ -2063,10 +2015,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>28</v>
@@ -2092,10 +2044,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -2121,10 +2073,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -2150,10 +2102,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -2179,10 +2131,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2208,10 +2160,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2237,10 +2189,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2266,10 +2218,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -2295,10 +2247,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>9</v>
@@ -2324,10 +2276,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -2353,10 +2305,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2382,10 +2334,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -2411,10 +2363,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -2440,10 +2392,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2469,10 +2421,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2498,10 +2450,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2527,10 +2479,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2556,10 +2508,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2585,10 +2537,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2614,10 +2566,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2643,10 +2595,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2672,10 +2624,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2701,10 +2653,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2730,10 +2682,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2759,10 +2711,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2788,10 +2740,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2817,10 +2769,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2846,10 +2798,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2875,10 +2827,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2904,10 +2856,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2933,10 +2885,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2962,10 +2914,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2991,10 +2943,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3020,10 +2972,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3049,10 +3001,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3078,10 +3030,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3107,10 +3059,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3136,10 +3088,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3165,10 +3117,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3194,10 +3146,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3223,10 +3175,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3252,10 +3204,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3281,10 +3233,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3310,10 +3262,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3339,10 +3291,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3368,10 +3320,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3397,10 +3349,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3426,10 +3378,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3455,10 +3407,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3484,10 +3436,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3513,10 +3465,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3542,10 +3494,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3571,10 +3523,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3600,10 +3552,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3629,10 +3581,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3658,10 +3610,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3687,10 +3639,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3716,10 +3668,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3745,10 +3697,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>7</v>
@@ -3774,10 +3726,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3803,10 +3755,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3832,10 +3784,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3861,10 +3813,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3890,10 +3842,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3919,10 +3871,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3948,10 +3900,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3977,10 +3929,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4006,10 +3958,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4035,10 +3987,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4064,10 +4016,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4093,10 +4045,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4122,10 +4074,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4151,10 +4103,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4180,10 +4132,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4209,10 +4161,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4238,10 +4190,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4267,10 +4219,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4296,10 +4248,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4325,10 +4277,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4354,10 +4306,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4383,10 +4335,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -4412,10 +4364,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4441,10 +4393,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4470,10 +4422,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4499,10 +4451,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4528,10 +4480,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4557,10 +4509,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4586,10 +4538,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4615,10 +4567,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4644,10 +4596,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4673,10 +4625,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4702,10 +4654,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4731,10 +4683,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4760,10 +4712,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4789,10 +4741,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4818,10 +4770,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4847,10 +4799,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4876,10 +4828,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4905,10 +4857,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4934,10 +4886,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4963,10 +4915,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4992,10 +4944,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5021,10 +4973,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5050,10 +5002,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5079,10 +5031,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5108,10 +5060,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5137,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5166,10 +5118,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5195,10 +5147,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5224,10 +5176,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5253,10 +5205,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5282,10 +5234,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5311,10 +5263,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5340,10 +5292,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5369,10 +5321,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5398,10 +5350,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5427,10 +5379,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5456,10 +5408,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5485,10 +5437,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5514,10 +5466,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5543,10 +5495,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5572,10 +5524,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5601,10 +5553,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5630,10 +5582,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5659,10 +5611,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5688,10 +5640,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5717,10 +5669,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5746,10 +5698,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5775,10 +5727,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F143" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5804,10 +5756,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5833,10 +5785,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5862,10 +5814,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5891,10 +5843,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -5920,10 +5872,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5949,10 +5901,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5978,10 +5930,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6007,10 +5959,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6036,10 +5988,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6065,10 +6017,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6094,10 +6046,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6123,10 +6075,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6152,10 +6104,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6181,10 +6133,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6210,10 +6162,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6239,10 +6191,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6268,10 +6220,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6297,10 +6249,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6326,10 +6278,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6355,10 +6307,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6384,10 +6336,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6413,10 +6365,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6442,10 +6394,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6471,10 +6423,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6500,10 +6452,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6529,10 +6481,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6558,10 +6510,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6587,10 +6539,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6616,10 +6568,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6645,10 +6597,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6674,10 +6626,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6703,10 +6655,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>15</v>
@@ -6732,10 +6684,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6761,10 +6713,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6790,10 +6742,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6819,10 +6771,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -6848,10 +6800,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6877,10 +6829,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6906,10 +6858,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6935,10 +6887,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6964,10 +6916,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6993,10 +6945,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7022,10 +6974,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7051,10 +7003,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7080,10 +7032,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7109,10 +7061,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7138,10 +7090,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F190" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7167,10 +7119,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7196,10 +7148,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7225,10 +7177,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7254,10 +7206,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7283,10 +7235,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F195" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7312,10 +7264,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>15</v>
@@ -7341,10 +7293,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7370,10 +7322,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7399,10 +7351,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7428,10 +7380,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7457,10 +7409,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7486,10 +7438,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7515,10 +7467,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7544,10 +7496,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7573,10 +7525,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7602,10 +7554,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7631,10 +7583,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7660,10 +7612,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7689,10 +7641,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7718,10 +7670,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7747,10 +7699,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -7776,10 +7728,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7805,10 +7757,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7834,10 +7786,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7863,10 +7815,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F215" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7892,10 +7844,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>

--- a/xlsx/美洲国家组织_intext.xlsx
+++ b/xlsx/美洲国家组织_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地緣政治</t>
   </si>
   <si>
-    <t>政策_政策_美國_美洲国家组织</t>
+    <t>体育运动_体育运动_欧洲议会_美洲国家组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
